--- a/0_pl_notes/fundamentals/VersionHandling/TestVersioning.xlsx
+++ b/0_pl_notes/fundamentals/VersionHandling/TestVersioning.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Workflow" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>Test</t>
   </si>
@@ -64,6 +64,48 @@
   </si>
   <si>
     <t>sequence</t>
+  </si>
+  <si>
+    <t>TestVersion</t>
+  </si>
+  <si>
+    <t>Create Test</t>
+  </si>
+  <si>
+    <t>Create TestCriteria (product class,,,)</t>
+  </si>
+  <si>
+    <t>Test Editor</t>
+  </si>
+  <si>
+    <t>Create Routines(s)</t>
+  </si>
+  <si>
+    <t>Create TestMetods(s)</t>
+  </si>
+  <si>
+    <t>Create TestCase(s)</t>
+  </si>
+  <si>
+    <t>Create TestSequence(s)</t>
+  </si>
+  <si>
+    <t>TestLeader</t>
+  </si>
+  <si>
+    <t>Create TestPlan</t>
+  </si>
+  <si>
+    <t>Save TestPlan</t>
+  </si>
+  <si>
+    <t>* Select TestMethod(s)</t>
+  </si>
+  <si>
+    <t>* List of matching Routines and TestCases is presented</t>
+  </si>
+  <si>
+    <t>* Unselect Routines and TestCases not wanted</t>
   </si>
 </sst>
 </file>
@@ -402,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:I5"/>
+  <dimension ref="B1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,9 +459,12 @@
     <col min="9" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -440,7 +485,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>11</v>
+      </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -460,7 +508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -480,7 +528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -500,15 +548,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -518,12 +566,108 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
